--- a/biology/Virologie/Sobemovirus/Sobemovirus.xlsx
+++ b/biology/Virologie/Sobemovirus/Sobemovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sobemovirus est un genre de phytovirus de la famille des Solemoviridae, qui comprend 19 espèces acceptées par l'ICTV. Ce sont des virus à ARN linéaire à simple brin de polarité positive, rattachés au  groupe IV de la classification Baltimore. Les virus appartenant à ce genre infectent exclusivement les plantes.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Sobemovirus est une combinaison forgée à partir du nom de l'espèce-type, Southern bean mosaic virus[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Sobemovirus est une combinaison forgée à partir du nom de l'espèce-type, Southern bean mosaic virus.  
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules quasi sphériques, d'environ 25 à 30 nm de diamètre à symétrie icosaédrique (T=3). La capside est constituée d'une seule couche de 180 sous-unités de protéines CP d'environ 26–31 kDa[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules quasi sphériques, d'environ 25 à 30 nm de diamètre à symétrie icosaédrique (T=3). La capside est constituée d'une seule couche de 180 sous-unités de protéines CP d'environ 26–31 kDa.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 janvier 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 janvier 2021) :
 Artemisia virus A
 Blueberry shoestring virus
 Cocksfoot mottle virus
